--- a/results/I3_N5_M2_T45_C100_DepLowerLeft_s2_P6_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepLowerLeft_s2_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1602.48071357761</v>
+        <v>1314.171879967358</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.42186718751606</v>
+        <v>51.68236056265209</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.05293707167424</v>
+        <v>25.44226405705527</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1067.860000000007</v>
+        <v>860</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>486.32</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -962,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30.66483080554379</v>
+        <v>31.76867181806009</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.33516919445621</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -986,7 +986,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.119321857853208</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +994,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -1002,7 +1002,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42.72978832722616</v>
+        <v>41.6086347173128</v>
       </c>
     </row>
     <row r="9">
@@ -1010,7 +1010,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40.32314874444808</v>
+        <v>43.83362933974247</v>
       </c>
     </row>
   </sheetData>
@@ -1059,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1087,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1101,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1115,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1129,7 +1129,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1143,7 +1143,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1157,7 +1157,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1171,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1185,7 +1185,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
@@ -1199,7 +1199,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1213,7 +1213,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
@@ -1241,7 +1241,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
@@ -1255,7 +1255,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>5</v>
@@ -1363,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>176.8899999999998</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8">
@@ -1374,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>168.8449999999998</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9">
@@ -1385,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>166.7399999999998</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10">
@@ -1396,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>172.7349999999998</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
@@ -1407,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>175.75</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12">
@@ -1418,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>133.2349999999999</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
@@ -1429,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>131.8099999999999</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
@@ -1440,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>125.4449999999999</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
@@ -1451,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>133.2249999999999</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16">
@@ -1462,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>131.8799999999999</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17">
@@ -1473,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>32.91499999999935</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1484,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>33.31999999999935</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -1495,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.77999999999935</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -1506,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>36.18499999999935</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1517,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -1528,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>93.39000000000037</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
@@ -1539,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>93.47500000000036</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1550,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>91.28000000000037</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
@@ -1561,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>91.81500000000037</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
@@ -1572,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>93.57500000000036</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
@@ -1583,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>140.0100000000011</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
@@ -1594,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>134.95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
@@ -1605,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>129.2050000000011</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
@@ -1616,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>131.4700000000011</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31">
@@ -1627,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>137.3350000000011</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>176.8899999999998</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
@@ -1649,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>168.8449999999998</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34">
@@ -1660,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>166.7399999999998</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
@@ -1671,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>172.7349999999998</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36">
@@ -1682,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>175.75</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
@@ -1693,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>140.0100000000011</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38">
@@ -1704,7 +1704,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>134.95</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39">
@@ -1715,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>129.2050000000011</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40">
@@ -1726,7 +1726,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>131.4700000000011</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41">
@@ -1737,7 +1737,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>137.3350000000011</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>76.88999999999979</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -1795,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>68.84499999999977</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -1806,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>66.73999999999978</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -1817,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>72.73499999999979</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -1828,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>75.75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -1839,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>40.0100000000011</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1850,7 +1850,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>34.94999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1861,7 +1861,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>29.20500000000109</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -1872,7 +1872,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>31.47000000000108</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1883,7 +1883,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>37.33500000000112</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1985,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1996,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>17.125</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2007,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>18.02</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -2018,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>19.835</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2029,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>19.94</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -2040,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>8.255000000000001</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -2051,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>13.395</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -2062,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>11.08</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -2073,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>11.465</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -2084,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>9.42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -2095,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>12.78</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2106,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>19.015</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -2117,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>11.29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2128,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>18.235</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -2139,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>14.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2150,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2161,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2172,7 +2172,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2183,7 +2183,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2194,7 +2194,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
